--- a/biology/Médecine/Hôpital_Notre-Dame-de-Bon-Secours_(Metz)/Hôpital_Notre-Dame-de-Bon-Secours_(Metz).xlsx
+++ b/biology/Médecine/Hôpital_Notre-Dame-de-Bon-Secours_(Metz)/Hôpital_Notre-Dame-de-Bon-Secours_(Metz).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame-de-Bon-Secours_(Metz)</t>
+          <t>Hôpital_Notre-Dame-de-Bon-Secours_(Metz)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital Notre-Dame-de-Bon-Secours ou plus simplement Bon-Secours était un hôpital de Metz. Il faisait partie du centre hospitalier régional de Metz-Thionville et a été transféré à l’hôpital de Mercy.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame-de-Bon-Secours_(Metz)</t>
+          <t>Hôpital_Notre-Dame-de-Bon-Secours_(Metz)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier hôpital le long de la rue Chambière vient d’une donation de Nicolas Rollin, chanoine de Saint-Thiébault, en 1691[1].
-En 1914, l’hôpital Bon-Secours devait déménager dans le quartier de Devant-les-Ponts. Finalement il déménage dans le quartier Nouvelle Ville en 1919[2]. De nouveaux bâtiments sont construits à partir de 1959.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier hôpital le long de la rue Chambière vient d’une donation de Nicolas Rollin, chanoine de Saint-Thiébault, en 1691.
+En 1914, l’hôpital Bon-Secours devait déménager dans le quartier de Devant-les-Ponts. Finalement il déménage dans le quartier Nouvelle Ville en 1919. De nouveaux bâtiments sont construits à partir de 1959.
 Le centre hospitalier de Metz fusionne en 1976 avec celui de Thionville et la ministre de la Santé Simone Veil érige la nouvelle structure en centre hospitalier régional de Metz-Thionville le 3 mai 1977. Le centre hospitalier compte alors neuf établissements différents.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame-de-Bon-Secours_(Metz)</t>
+          <t>Hôpital_Notre-Dame-de-Bon-Secours_(Metz)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Déménagement et réhabilitation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’implantation de l’hôpital de Bon-Secours au centre-ville de Metz limitant les possibilités d’extension, ses activités sont transférées vers le nouvel hôpital de Mercy dans la banlieue est de la ville. L’ensemble des services médicaux et chirurgicaux y sont maintenus.
-En activité de 1919 à 2012, l’hôpital Bon Secours est désormais à l’abandon[3], en attendant la destruction partielle des bâtiments, et le lancement du projet urbain destiné à le remplacer au cœur du quartier Sainte Thérèse.
-Un plan de réhabilitation du site est prévu[4]. L'ilot accueille des logements, des bureaux, un restaurant, une école et des équipements sportifs scolaires. Une "diagonale" piétonne arborée ouvre une perspective entre les deux lycées George de la Tour et Louis Vincent.
+En activité de 1919 à 2012, l’hôpital Bon Secours est désormais à l’abandon, en attendant la destruction partielle des bâtiments, et le lancement du projet urbain destiné à le remplacer au cœur du quartier Sainte Thérèse.
+Un plan de réhabilitation du site est prévu. L'ilot accueille des logements, des bureaux, un restaurant, une école et des équipements sportifs scolaires. Une "diagonale" piétonne arborée ouvre une perspective entre les deux lycées George de la Tour et Louis Vincent.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame-de-Bon-Secours_(Metz)</t>
+          <t>Hôpital_Notre-Dame-de-Bon-Secours_(Metz)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Historique du service pédiatrie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 24 juillet 1918, on décide de créer un service de nourrissons de 12 à 15 lits à l’hôpital Bon Secours qui se trouvait à ce moment rue Chambière. Ne disposant ni de personnel, ni de matériel nécessaire, la commission décide d’envoyer une délégation à Cologne où des sœurs s’occupent d’un service pour enfants.
 L’hôpital Bon-Secours actuel, alors nommé hôpital Sainte-Marie, est acheté en 1919 aux sœurs de l’Espérance au prix de deux millions de francs.
